--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Opis</t>
   </si>
@@ -43,6 +43,36 @@
   </si>
   <si>
     <t>Termin zapłaty</t>
+  </si>
+  <si>
+    <t>fv/am/021138/13</t>
+  </si>
+  <si>
+    <t>fv/am/003577/14</t>
+  </si>
+  <si>
+    <t>fv/am/008279/14</t>
+  </si>
+  <si>
+    <t>10s i 11s</t>
+  </si>
+  <si>
+    <t>15S</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>17S</t>
+  </si>
+  <si>
+    <t>18S</t>
+  </si>
+  <si>
+    <t>19S</t>
+  </si>
+  <si>
+    <t>20S</t>
   </si>
 </sst>
 </file>
@@ -422,7 +452,7 @@
   <dimension ref="B2:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,6 +515,89 @@
         <v>60</v>
       </c>
     </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>41654</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>105.45</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41663</v>
+      </c>
+      <c r="F5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1">
+        <v>41715</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>128.76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1">
+        <v>41744</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1">
+        <v>41774</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1">
+        <v>41806</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
+        <v>41835</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
+        <v>41866</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>67.86</v>
+      </c>
+    </row>
     <row r="27" spans="4:4">
       <c r="D27" s="1"/>
     </row>
@@ -694,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G2"/>
+  <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,6 +841,57 @@
       </c>
       <c r="G2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1">
+        <v>41627</v>
+      </c>
+      <c r="C3">
+        <v>26.34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>41694</v>
+      </c>
+      <c r="G3">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1">
+        <v>41667</v>
+      </c>
+      <c r="C4">
+        <v>15.27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>41694</v>
+      </c>
+      <c r="G4">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
+        <v>41704</v>
+      </c>
+      <c r="C5">
+        <v>15.27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41694</v>
+      </c>
+      <c r="G5">
+        <v>15.27</v>
       </c>
     </row>
   </sheetData>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
@@ -11,7 +11,7 @@
     <sheet name="Rachunki ZGK" sheetId="4" r:id="rId2"/>
     <sheet name="Podatek Kąty" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -452,7 +452,7 @@
   <dimension ref="B2:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,6 +540,12 @@
         <v>13</v>
       </c>
       <c r="D6">
+        <v>128.76</v>
+      </c>
+      <c r="E6" s="1">
+        <v>41720</v>
+      </c>
+      <c r="F6">
         <v>128.76</v>
       </c>
     </row>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Opis</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>20S</t>
+  </si>
+  <si>
+    <t>fv/am/013208/14</t>
   </si>
 </sst>
 </file>
@@ -451,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,6 +562,12 @@
       <c r="D7">
         <v>67.86</v>
       </c>
+      <c r="E7" s="1">
+        <v>41736</v>
+      </c>
+      <c r="F7">
+        <v>67.86</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1">
@@ -813,10 +822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,7 +833,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -897,6 +906,23 @@
         <v>41694</v>
       </c>
       <c r="G5">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1">
+        <v>41732</v>
+      </c>
+      <c r="C6">
+        <v>15.27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>41736</v>
+      </c>
+      <c r="G6">
         <v>15.27</v>
       </c>
     </row>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Opis</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>fv/am/013208/14</t>
+  </si>
+  <si>
+    <t>fv/am/018240/14</t>
   </si>
 </sst>
 </file>
@@ -454,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -579,6 +582,12 @@
       <c r="D8">
         <v>67.86</v>
       </c>
+      <c r="E8" s="1">
+        <v>41769</v>
+      </c>
+      <c r="F8">
+        <v>67.86</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1">
@@ -822,10 +831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -924,6 +933,23 @@
       </c>
       <c r="G6">
         <v>15.27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1">
+        <v>41765</v>
+      </c>
+      <c r="C7">
+        <v>38.03</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41769</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Opis</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>fv/am/018240/14</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>fv/ds./000454/14</t>
   </si>
 </sst>
 </file>
@@ -128,8 +134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:F14" totalsRowShown="0">
-  <autoFilter ref="B2:F14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:F15" totalsRowShown="0">
+  <autoFilter ref="B2:F15">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F92"/>
+  <dimension ref="B2:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,50 +546,50 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1">
-        <v>41715</v>
+        <v>41687</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>128.76</v>
+        <v>53.68</v>
       </c>
       <c r="E6" s="1">
-        <v>41720</v>
+        <v>41792</v>
       </c>
       <c r="F6">
-        <v>128.76</v>
+        <v>53.68</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1">
-        <v>41744</v>
+        <v>41715</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>67.86</v>
+        <v>128.76</v>
       </c>
       <c r="E7" s="1">
-        <v>41736</v>
+        <v>41720</v>
       </c>
       <c r="F7">
-        <v>67.86</v>
+        <v>128.76</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1">
-        <v>41774</v>
+        <v>41744</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>67.86</v>
       </c>
       <c r="E8" s="1">
-        <v>41769</v>
+        <v>41736</v>
       </c>
       <c r="F8">
         <v>67.86</v>
@@ -591,39 +597,59 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1">
-        <v>41806</v>
+        <v>41774</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>67.86</v>
       </c>
+      <c r="E9" s="1">
+        <v>41769</v>
+      </c>
+      <c r="F9">
+        <v>67.86</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1">
-        <v>41835</v>
+        <v>41806</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>67.86</v>
       </c>
+      <c r="E10" s="1">
+        <v>41793</v>
+      </c>
+      <c r="F10">
+        <v>67.86</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1">
-        <v>41866</v>
+        <v>41835</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>67.86</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="1"/>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
+        <v>41866</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>67.86</v>
+      </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="1"/>
@@ -819,6 +845,9 @@
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,6 +979,23 @@
       </c>
       <c r="G7">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1">
+        <v>41802</v>
+      </c>
+      <c r="C8">
+        <v>15.27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41793</v>
+      </c>
+      <c r="G8">
+        <v>15.27</v>
       </c>
     </row>
   </sheetData>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Opis</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>fv/ds./000454/14</t>
+  </si>
+  <si>
+    <t>fv004349, fv 004350</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -996,6 +999,23 @@
       </c>
       <c r="G8">
         <v>15.27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1">
+        <v>41820</v>
+      </c>
+      <c r="C9">
+        <v>61.42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1">
+        <v>41816</v>
+      </c>
+      <c r="G9">
+        <v>61.42</v>
       </c>
     </row>
   </sheetData>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
     <sheet name="Rachunki ZGK" sheetId="4" r:id="rId2"/>
     <sheet name="Podatek Kąty" sheetId="5" r:id="rId3"/>
+    <sheet name="Rachunki Solid" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Opis</t>
   </si>
@@ -88,6 +89,18 @@
   </si>
   <si>
     <t>fv004349, fv 004350</t>
+  </si>
+  <si>
+    <t>fv/ds./009585/14, fv/ds./009586/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INS/1335/14/WRO/PN</t>
+  </si>
+  <si>
+    <t>214-08-06</t>
+  </si>
+  <si>
+    <t>podłączenie</t>
   </si>
 </sst>
 </file>
@@ -176,6 +189,21 @@
     <tableColumn id="3" name="Zapłacono"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="B3:G13" totalsRowShown="0">
+  <autoFilter ref="B3:G13"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Data płatności"/>
+    <tableColumn id="2" name="Kwota"/>
+    <tableColumn id="3" name="Opis"/>
+    <tableColumn id="4" name="Nr faktury"/>
+    <tableColumn id="5" name="Zapłacono"/>
+    <tableColumn id="6" name="Kwota przelewu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -467,7 +495,7 @@
   <dimension ref="B2:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,6 +670,12 @@
       <c r="D11">
         <v>67.86</v>
       </c>
+      <c r="E11" s="1">
+        <v>41853</v>
+      </c>
+      <c r="F11">
+        <v>67.86</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1">
@@ -651,6 +685,12 @@
         <v>18</v>
       </c>
       <c r="D12">
+        <v>67.86</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41853</v>
+      </c>
+      <c r="F12">
         <v>67.86</v>
       </c>
     </row>
@@ -863,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1016,6 +1056,23 @@
       </c>
       <c r="G9">
         <v>61.42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
+        <v>41855</v>
+      </c>
+      <c r="C10">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>41853</v>
+      </c>
+      <c r="G10">
+        <v>76.099999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1090,4 +1147,97 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>370.23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>41853</v>
+      </c>
+      <c r="G4">
+        <v>370.23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Opis</t>
   </si>
@@ -97,10 +97,34 @@
     <t xml:space="preserve"> INS/1335/14/WRO/PN</t>
   </si>
   <si>
-    <t>214-08-06</t>
-  </si>
-  <si>
     <t>podłączenie</t>
+  </si>
+  <si>
+    <t>009585/14 i 009586/14</t>
+  </si>
+  <si>
+    <t>faktura</t>
+  </si>
+  <si>
+    <t>2014/08/002212/SP/1</t>
+  </si>
+  <si>
+    <t>fv/ds./014534/14 i fv/ds./014535/14</t>
+  </si>
+  <si>
+    <t>2014-09-</t>
+  </si>
+  <si>
+    <t>2014-10-</t>
+  </si>
+  <si>
+    <t>2014-11-</t>
+  </si>
+  <si>
+    <t>2014-12-</t>
+  </si>
+  <si>
+    <t>2015-01-</t>
   </si>
 </sst>
 </file>
@@ -137,9 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -150,8 +176,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:F15" totalsRowShown="0">
-  <autoFilter ref="B2:F15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:F17" totalsRowShown="0">
+  <autoFilter ref="B2:F17">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -166,8 +192,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:G12" totalsRowShown="0">
-  <autoFilter ref="B2:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:G17" totalsRowShown="0">
+  <autoFilter ref="B2:G17"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Data płatności"/>
     <tableColumn id="2" name="Kwota"/>
@@ -494,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,19 +720,78 @@
         <v>67.86</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="13" spans="2:6">
+      <c r="B13" s="1">
+        <v>41900</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>238.41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
+        <v>41930</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>72.14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
+        <v>41961</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>72.14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3">
+        <v>41991</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2">
+        <v>72.14</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3">
+        <v>42022</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2">
+        <v>72.14</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="28" spans="2:6">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="2:6">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="2:6">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="2:6">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="2:6">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4">
@@ -903,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1074,6 +1159,48 @@
       <c r="G10">
         <v>76.099999999999994</v>
       </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1">
+        <v>41855</v>
+      </c>
+      <c r="C11">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>41862</v>
+      </c>
+      <c r="G11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1">
+        <v>41890</v>
+      </c>
+      <c r="C12">
+        <v>115.77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>41882</v>
+      </c>
+      <c r="G12">
+        <v>115.77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1153,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1187,14 +1314,14 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1" t="s">
-        <v>26</v>
+      <c r="B4" s="1">
+        <v>41857</v>
       </c>
       <c r="C4">
         <v>370.23</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1207,8 +1334,24 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="1">
+        <v>41866</v>
+      </c>
+      <c r="C5">
+        <v>33.33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41862</v>
+      </c>
+      <c r="G5">
+        <v>33.33</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1"/>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Opis</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>2015-01-</t>
+  </si>
+  <si>
+    <t>fv/ds./019412/14; fv/ds./019411/14</t>
+  </si>
+  <si>
+    <t>2014/09/000926/SP/1</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
   <dimension ref="B2:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,6 +736,12 @@
       <c r="D13">
         <v>238.41</v>
       </c>
+      <c r="E13" s="1">
+        <v>41909</v>
+      </c>
+      <c r="F13">
+        <v>238.41</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="1">
@@ -991,7 +1003,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,6 +1204,23 @@
       </c>
       <c r="G12">
         <v>115.77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1">
+        <v>41913</v>
+      </c>
+      <c r="C13">
+        <v>33.97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1">
+        <v>41909</v>
+      </c>
+      <c r="G13">
+        <v>33.97</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1281,7 +1310,7 @@
   <dimension ref="B3:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1354,8 +1383,24 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="1">
+        <v>41897</v>
+      </c>
+      <c r="C6">
+        <v>36.9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1">
+        <v>41909</v>
+      </c>
+      <c r="G6">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1"/>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Opis</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>2014/09/000926/SP/1</t>
+  </si>
+  <si>
+    <t>Nr 2014/10/239010/SP/2</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1399,12 +1402,28 @@
         <v>41909</v>
       </c>
       <c r="G6">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1">
+        <v>41927</v>
+      </c>
+      <c r="C7">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41924</v>
+      </c>
+      <c r="G7">
+        <v>40.47</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1"/>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Opis</t>
   </si>
@@ -134,6 +134,13 @@
   </si>
   <si>
     <t>Nr 2014/10/239010/SP/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fv/ds/025178/14 i fv/ds/025
+179/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2014/11/235865/SP/2/</t>
   </si>
 </sst>
 </file>
@@ -170,11 +177,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -530,7 +540,7 @@
   <dimension ref="B2:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,6 +766,12 @@
       <c r="D14">
         <v>72.14</v>
       </c>
+      <c r="E14" s="1">
+        <v>41936</v>
+      </c>
+      <c r="F14">
+        <v>72.14</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="1">
@@ -765,6 +781,12 @@
         <v>33</v>
       </c>
       <c r="D15">
+        <v>72.14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>41953</v>
+      </c>
+      <c r="F15">
         <v>72.14</v>
       </c>
     </row>
@@ -1006,7 +1028,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1224,6 +1246,23 @@
       </c>
       <c r="G13">
         <v>33.97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B14" s="1">
+        <v>41947</v>
+      </c>
+      <c r="C14">
+        <v>73.36</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>41936</v>
+      </c>
+      <c r="G14">
+        <v>5.42</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1313,7 +1352,7 @@
   <dimension ref="B3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1426,8 +1465,24 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="1">
+        <v>41958</v>
+      </c>
+      <c r="C8">
+        <v>36.9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41949</v>
+      </c>
+      <c r="G8">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1"/>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
     <sheet name="Rachunki ZGK" sheetId="4" r:id="rId2"/>
     <sheet name="Podatek Kąty" sheetId="5" r:id="rId3"/>
     <sheet name="Rachunki Solid" sheetId="6" r:id="rId4"/>
+    <sheet name="Rachunki Gaz" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Opis</t>
   </si>
@@ -141,6 +142,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 2014/11/235865/SP/2/</t>
+  </si>
+  <si>
+    <t>FV 4945852/001</t>
+  </si>
+  <si>
+    <t>mati</t>
+  </si>
+  <si>
+    <t>Wiosna</t>
+  </si>
+  <si>
+    <t>fv/ds./030533/14 i fv/ds./030534/14</t>
   </si>
 </sst>
 </file>
@@ -249,6 +262,20 @@
     <tableColumn id="6" name="Kwota przelewu"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela325" displayName="Tabela325" ref="B4:F14" totalsRowShown="0">
+  <autoFilter ref="B4:F14"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Data płatności"/>
+    <tableColumn id="2" name="Kwota"/>
+    <tableColumn id="4" name="Nr faktury"/>
+    <tableColumn id="5" name="Zapłacono"/>
+    <tableColumn id="6" name="Kwota przelewu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -540,7 +567,7 @@
   <dimension ref="B2:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1027,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1263,6 +1290,23 @@
       </c>
       <c r="G14">
         <v>5.42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1">
+        <v>41975</v>
+      </c>
+      <c r="C15">
+        <v>54.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1">
+        <v>41969</v>
+      </c>
+      <c r="G15">
+        <v>122.04</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1351,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1502,4 +1546,102 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>41971</v>
+      </c>
+      <c r="C5">
+        <v>183.33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41969</v>
+      </c>
+      <c r="F5">
+        <v>183.33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Opis</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>fv/ds./030533/14 i fv/ds./030534/14</t>
+  </si>
+  <si>
+    <t>ebok</t>
+  </si>
+  <si>
+    <t>wiosna</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F93"/>
+  <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -579,7 +585,7 @@
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -595,8 +601,14 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <v>41442</v>
       </c>
@@ -612,8 +624,11 @@
       <c r="F3">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1">
         <v>41470</v>
       </c>
@@ -630,7 +645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <v>41654</v>
       </c>
@@ -647,7 +662,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:9">
       <c r="B6" s="1">
         <v>41687</v>
       </c>
@@ -664,7 +679,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>41715</v>
       </c>
@@ -681,7 +696,7 @@
         <v>128.76</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>41744</v>
       </c>
@@ -698,7 +713,7 @@
         <v>67.86</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>41774</v>
       </c>
@@ -715,7 +730,7 @@
         <v>67.86</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:9">
       <c r="B10" s="1">
         <v>41806</v>
       </c>
@@ -732,7 +747,7 @@
         <v>67.86</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:9">
       <c r="B11" s="1">
         <v>41835</v>
       </c>
@@ -749,7 +764,7 @@
         <v>67.86</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:9">
       <c r="B12" s="1">
         <v>41866</v>
       </c>
@@ -766,7 +781,7 @@
         <v>67.86</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>41900</v>
       </c>
@@ -783,7 +798,7 @@
         <v>238.41</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>41930</v>
       </c>
@@ -800,7 +815,7 @@
         <v>72.14</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
         <v>41961</v>
       </c>
@@ -817,7 +832,7 @@
         <v>72.14</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:9">
       <c r="B16" s="3">
         <v>41991</v>
       </c>
@@ -1054,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1553,7 +1568,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1566,6 +1581,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
       <c r="D1" t="s">
         <v>42</v>
       </c>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Podatek Kąty" sheetId="5" r:id="rId3"/>
     <sheet name="Rachunki Solid" sheetId="6" r:id="rId4"/>
     <sheet name="Rachunki Gaz" sheetId="7" r:id="rId5"/>
+    <sheet name="Rachunki Plus" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>Opis</t>
   </si>
@@ -160,6 +161,21 @@
   </si>
   <si>
     <t>wiosna</t>
+  </si>
+  <si>
+    <t>Numer</t>
+  </si>
+  <si>
+    <t>_1411240478380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwota </t>
+  </si>
+  <si>
+    <t>Data przelewu</t>
+  </si>
+  <si>
+    <t>_  95 2350 0015 3333 0000 1922 1901</t>
   </si>
 </sst>
 </file>
@@ -196,12 +212,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -572,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1662,4 +1681,59 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7">
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>100.61</v>
+      </c>
+      <c r="E4" s="5">
+        <v>41983</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Opis</t>
   </si>
@@ -176,13 +176,43 @@
   </si>
   <si>
     <t>_  95 2350 0015 3333 0000 1922 1901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014/12/236822/SP/2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fv/ds/035941/14 i fv/ds/035942/14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> faktura 2015/01/233315/SP/2  </t>
+  </si>
+  <si>
+    <t>fv 002</t>
+  </si>
+  <si>
+    <t>fv 1412240475422</t>
+  </si>
+  <si>
+    <t>VAT 3214945852/003 z dnia 2015.01.14</t>
+  </si>
+  <si>
+    <t>http://ebok.pgnig.pl</t>
+  </si>
+  <si>
+    <t>https://eobsluga.tauron-pe.pl/Strony/ebokwroclaw.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> faktura 2015/02/235068/SP/2  </t>
+  </si>
+  <si>
+    <t>fv 1501240469367</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +220,14 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,10 +247,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -223,8 +265,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I93"/>
+  <dimension ref="B1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,6 +649,11 @@
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9">
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>1</v>
@@ -861,8 +911,12 @@
       <c r="D16" s="2">
         <v>72.14</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="3">
+        <v>41988</v>
+      </c>
+      <c r="F16" s="2">
+        <v>72.14</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3">
@@ -874,8 +928,12 @@
       <c r="D17" s="2">
         <v>72.14</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="3">
+        <v>42009</v>
+      </c>
+      <c r="F17" s="2">
+        <v>72.14</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="D28" s="1"/>
@@ -1089,7 +1147,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1341,6 +1399,23 @@
       </c>
       <c r="G15">
         <v>122.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1">
+        <v>42003</v>
+      </c>
+      <c r="C16">
+        <v>65.17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1">
+        <v>42009</v>
+      </c>
+      <c r="G16">
+        <v>65.17</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1430,7 +1505,7 @@
   <dimension ref="B3:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1563,31 +1638,82 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1">
+        <v>41988</v>
+      </c>
+      <c r="C9">
+        <v>36.9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1">
+        <v>41988</v>
+      </c>
+      <c r="G9">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1">
+        <v>42019</v>
+      </c>
+      <c r="C10">
+        <v>36.9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1">
+        <v>42019</v>
+      </c>
+      <c r="G10">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1">
+        <v>42051</v>
+      </c>
+      <c r="C11">
+        <v>36.9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42039</v>
+      </c>
+      <c r="G11">
+        <v>36.9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" display="https://e-solid.pl/index.php?C&amp;act=preview&amp;id=1455440"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1599,7 +1725,10 @@
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:11">
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C1" t="s">
         <v>45</v>
       </c>
@@ -1607,12 +1736,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:11">
       <c r="D2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:11">
       <c r="B5" s="1">
         <v>41971</v>
       </c>
@@ -1646,56 +1775,88 @@
         <v>183.33</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:6">
+    <row r="6" spans="2:11">
+      <c r="B6" s="1">
+        <v>41998</v>
+      </c>
+      <c r="C6">
+        <v>348.39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42019</v>
+      </c>
+      <c r="F6">
+        <v>350</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="1">
+        <v>42032</v>
+      </c>
+      <c r="C7">
+        <v>442.47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42039</v>
+      </c>
+      <c r="F7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:11">
       <c r="B9" s="1"/>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:11">
       <c r="B10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:11">
       <c r="B11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:11">
       <c r="B12" s="1"/>
       <c r="E12" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:G4"/>
+  <dimension ref="C1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
@@ -1730,7 +1891,46 @@
       <c r="E4" s="5">
         <v>41983</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>41980</v>
+      </c>
+      <c r="G4">
+        <v>100.61</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42016</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42009</v>
+      </c>
+      <c r="G5">
+        <v>38.270000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>36.99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42045</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42039</v>
+      </c>
+      <c r="G6">
+        <v>36.99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Rachunki Solid" sheetId="6" r:id="rId4"/>
     <sheet name="Rachunki Gaz" sheetId="7" r:id="rId5"/>
     <sheet name="Rachunki Plus" sheetId="8" r:id="rId6"/>
+    <sheet name="Smieci" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>Opis</t>
   </si>
@@ -206,13 +207,34 @@
   </si>
   <si>
     <t>fv 1501240469367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U/55/9021187/0715RW </t>
+  </si>
+  <si>
+    <t>woda</t>
+  </si>
+  <si>
+    <t>podlicznik</t>
+  </si>
+  <si>
+    <t>bo była nadpłata</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>fv/ds/000856/15 i fv/ds/000857/15</t>
+  </si>
+  <si>
+    <t>FV 4945852/004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,21 +251,110 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -254,7 +365,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -267,6 +378,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -278,8 +401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:F17" totalsRowShown="0">
-  <autoFilter ref="B2:F17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:F22" totalsRowShown="0">
+  <autoFilter ref="B2:F22">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -294,15 +417,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:G17" totalsRowShown="0">
-  <autoFilter ref="B2:G17"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:H17" totalsRowShown="0">
+  <autoFilter ref="B2:H17">
+    <filterColumn colId="6"/>
+  </autoFilter>
+  <tableColumns count="7">
     <tableColumn id="1" name="Data płatności"/>
-    <tableColumn id="2" name="Kwota"/>
-    <tableColumn id="3" name="Opis"/>
+    <tableColumn id="2" name="woda"/>
+    <tableColumn id="3" name="podlicznik"/>
     <tableColumn id="4" name="Nr faktury"/>
     <tableColumn id="5" name="Zapłacono"/>
     <tableColumn id="6" name="Kwota przelewu"/>
+    <tableColumn id="7" name="Kolumna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -637,7 +763,7 @@
   <dimension ref="B1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -935,6 +1061,67 @@
         <v>72.14</v>
       </c>
     </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3">
+        <v>42066</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2">
+        <v>455.89</v>
+      </c>
+      <c r="E18" s="3">
+        <v>42053</v>
+      </c>
+      <c r="F18" s="2">
+        <v>455.89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3">
+        <v>42097</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>94.25</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3">
+        <v>42127</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>94.25</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3">
+        <v>42158</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>94.25</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="3">
+        <v>42188</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>94.25</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
     <row r="28" spans="2:6">
       <c r="D28" s="1"/>
     </row>
@@ -1144,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C22" sqref="C22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1160,15 +1347,15 @@
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1179,8 +1366,11 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="1">
         <v>41627</v>
       </c>
@@ -1197,7 +1387,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="1">
         <v>41667</v>
       </c>
@@ -1214,7 +1404,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>41704</v>
       </c>
@@ -1231,7 +1421,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="1">
         <v>41732</v>
       </c>
@@ -1248,7 +1438,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1">
         <v>41765</v>
       </c>
@@ -1265,7 +1455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="1">
         <v>41802</v>
       </c>
@@ -1282,7 +1472,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="1">
         <v>41820</v>
       </c>
@@ -1299,7 +1489,7 @@
         <v>61.42</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10" s="1">
         <v>41855</v>
       </c>
@@ -1316,7 +1506,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="1">
         <v>41855</v>
       </c>
@@ -1333,7 +1523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12" s="1">
         <v>41890</v>
       </c>
@@ -1350,7 +1540,7 @@
         <v>115.77</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8">
       <c r="B13" s="1">
         <v>41913</v>
       </c>
@@ -1367,7 +1557,7 @@
         <v>33.97</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1">
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
       <c r="B14" s="1">
         <v>41947</v>
       </c>
@@ -1384,7 +1574,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:8">
       <c r="B15" s="1">
         <v>41975</v>
       </c>
@@ -1401,7 +1591,7 @@
         <v>122.04</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8">
       <c r="B16" s="1">
         <v>42003</v>
       </c>
@@ -1418,13 +1608,28 @@
         <v>65.17</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3">
+        <v>42039</v>
+      </c>
+      <c r="C17" s="2">
+        <v>48.89</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42053</v>
+      </c>
+      <c r="G17" s="2">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1438,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1713,7 +1918,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1811,8 +2016,21 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1">
+        <v>42061</v>
+      </c>
+      <c r="C8">
+        <v>313.88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42053</v>
+      </c>
+      <c r="F8">
+        <v>313.88</v>
+      </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="1"/>
@@ -1846,13 +2064,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1936,4 +2154,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="11">
+        <v>41958</v>
+      </c>
+      <c r="C4" s="12">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13">
+        <v>41981</v>
+      </c>
+      <c r="G4" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="11">
+        <v>42353</v>
+      </c>
+      <c r="C5" s="12">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
+        <v>42053</v>
+      </c>
+      <c r="G5" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="15">
+        <v>42078</v>
+      </c>
+      <c r="C6" s="16">
+        <v>90</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
+        <v>42053</v>
+      </c>
+      <c r="G6" s="18">
+        <v>90</v>
+      </c>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="11">
+        <v>42139</v>
+      </c>
+      <c r="C7" s="12">
+        <v>90</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
+        <v>42053</v>
+      </c>
+      <c r="G7" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="15">
+        <v>42262</v>
+      </c>
+      <c r="C8" s="16">
+        <v>90</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="11">
+        <v>42323</v>
+      </c>
+      <c r="C9" s="12">
+        <v>90</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>Opis</t>
   </si>
@@ -228,6 +228,45 @@
   </si>
   <si>
     <t>FV 4945852/004</t>
+  </si>
+  <si>
+    <t>fv/ds./006295/15 i fv/ds./006296/15</t>
+  </si>
+  <si>
+    <t>bo jest nadpłata</t>
+  </si>
+  <si>
+    <t>oplata za en elektryczna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> faktura 2015/03/229112/SP/2  </t>
+  </si>
+  <si>
+    <t>fv/ds./012312/15 i fv/ds./012313/15</t>
+  </si>
+  <si>
+    <t>fv 3214945852/005</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>fv 1503240455394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">faktura 2015/04/224922/SP/2  </t>
+  </si>
+  <si>
+    <t>fv 006</t>
+  </si>
+  <si>
+    <t>U/55/9021187/1015P3</t>
   </si>
 </sst>
 </file>
@@ -417,8 +456,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:H17" totalsRowShown="0">
-  <autoFilter ref="B2:H17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:H24" totalsRowShown="0">
+  <autoFilter ref="B2:H24">
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="7">
@@ -447,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="B3:G13" totalsRowShown="0">
-  <autoFilter ref="B3:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela32" displayName="Tabela32" ref="B3:G23" totalsRowShown="0">
+  <autoFilter ref="B3:G23"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Data płatności"/>
     <tableColumn id="2" name="Kwota"/>
@@ -462,16 +501,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela325" displayName="Tabela325" ref="B4:F14" totalsRowShown="0">
-  <autoFilter ref="B4:F14"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela325" displayName="Tabela325" ref="B4:H14" totalsRowShown="0">
+  <autoFilter ref="B4:H14">
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+  </autoFilter>
+  <tableColumns count="7">
     <tableColumn id="1" name="Data płatności"/>
     <tableColumn id="2" name="Kwota"/>
     <tableColumn id="4" name="Nr faktury"/>
     <tableColumn id="5" name="Zapłacono"/>
     <tableColumn id="6" name="Kwota przelewu"/>
+    <tableColumn id="3" name="m3"/>
+    <tableColumn id="7" name="kWh"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="C3:G16" totalsRowShown="0">
+  <autoFilter ref="C3:G16"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Numer"/>
+    <tableColumn id="2" name="Kwota "/>
+    <tableColumn id="3" name="Data płatności"/>
+    <tableColumn id="4" name="Data przelewu"/>
+    <tableColumn id="5" name="Kwota przelewu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -762,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1082,23 +1140,35 @@
       <c r="B19" s="3">
         <v>42097</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D19" s="2">
         <v>94.25</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="3">
+        <v>42078</v>
+      </c>
+      <c r="F19" s="2">
+        <v>94.25</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="3">
         <v>42127</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D20" s="2">
         <v>94.25</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="3">
+        <v>42110</v>
+      </c>
+      <c r="F20" s="2">
+        <v>94.25</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3">
@@ -1331,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1631,6 +1701,97 @@
         <v>65</v>
       </c>
     </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="3">
+        <v>42068</v>
+      </c>
+      <c r="C18" s="2">
+        <v>39.47</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42064</v>
+      </c>
+      <c r="G18" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3">
+        <v>42095</v>
+      </c>
+      <c r="C19" s="2">
+        <v>39.47</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="3">
+        <v>42094</v>
+      </c>
+      <c r="G19" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1643,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1707,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G11"/>
+  <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1899,6 +2060,46 @@
         <v>42039</v>
       </c>
       <c r="G11">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1">
+        <v>42078</v>
+      </c>
+      <c r="C12">
+        <v>36.9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42078</v>
+      </c>
+      <c r="G12">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1">
+        <v>42109</v>
+      </c>
+      <c r="C13">
+        <v>36.9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42106</v>
+      </c>
+      <c r="G13">
         <v>36.9</v>
       </c>
     </row>
@@ -1918,7 +2119,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1962,6 +2163,12 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1">
@@ -2033,13 +2240,50 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1">
+        <v>42093</v>
+      </c>
+      <c r="C9">
+        <v>316.83999999999997</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42094</v>
+      </c>
+      <c r="F9">
+        <v>316.83999999999997</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>1553</v>
+      </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1">
+        <v>42121</v>
+      </c>
+      <c r="C10">
+        <v>190.96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42110</v>
+      </c>
+      <c r="F10">
+        <v>190.96</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>887</v>
+      </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1"/>
@@ -2062,19 +2306,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:G6"/>
+  <dimension ref="C1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
@@ -2150,9 +2393,46 @@
         <v>36.99</v>
       </c>
     </row>
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>78.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42076</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42076</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>74.86</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42103</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42094</v>
+      </c>
+      <c r="G8">
+        <v>74.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2161,7 +2441,7 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/plan/Mati - wydatki rachunki.xlsx
+++ b/plan/Mati - wydatki rachunki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Rachunki Tauron" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Rachunki Gaz" sheetId="7" r:id="rId5"/>
     <sheet name="Rachunki Plus" sheetId="8" r:id="rId6"/>
     <sheet name="Smieci" sheetId="9" r:id="rId7"/>
+    <sheet name="alimenty Pyza" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>Opis</t>
   </si>
@@ -197,9 +198,6 @@
     <t>VAT 3214945852/003 z dnia 2015.01.14</t>
   </si>
   <si>
-    <t>http://ebok.pgnig.pl</t>
-  </si>
-  <si>
     <t>https://eobsluga.tauron-pe.pl/Strony/ebokwroclaw.aspx</t>
   </si>
   <si>
@@ -267,6 +265,54 @@
   </si>
   <si>
     <t>U/55/9021187/1015P3</t>
+  </si>
+  <si>
+    <t>fv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> faktura 2015/05/225635/SP/2  </t>
+  </si>
+  <si>
+    <t>fv 1504240449218</t>
+  </si>
+  <si>
+    <t>przelew</t>
+  </si>
+  <si>
+    <t>opłata za energię elektyczną</t>
+  </si>
+  <si>
+    <t>dc/023315/15, ds./023314/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/06/225905/SP/2 </t>
+  </si>
+  <si>
+    <t>FV 4945852/007</t>
+  </si>
+  <si>
+    <t>fv 1505240443995</t>
+  </si>
+  <si>
+    <t>fv/ds./028901/15 i fv/ds./028900/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015/07/222294/SP/2</t>
+  </si>
+  <si>
+    <t>nr klienta: 321 4945852, nr faktury: 8.</t>
+  </si>
+  <si>
+    <t>fv 1506240438522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FV 4945852/009 </t>
+  </si>
+  <si>
+    <t>fv/ds./034686/15 i fv/ds./0344685/15</t>
+  </si>
+  <si>
+    <t>fv 1507240433431</t>
   </si>
 </sst>
 </file>
@@ -456,8 +502,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:H24" totalsRowShown="0">
-  <autoFilter ref="B2:H24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B2:H30" totalsRowShown="0">
+  <autoFilter ref="B2:H30">
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="7">
@@ -820,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,7 +881,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -1124,7 +1170,7 @@
         <v>42066</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>455.89</v>
@@ -1141,7 +1187,7 @@
         <v>42097</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2">
         <v>94.25</v>
@@ -1158,7 +1204,7 @@
         <v>42127</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2">
         <v>94.25</v>
@@ -1174,23 +1220,35 @@
       <c r="B21" s="3">
         <v>42158</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D21" s="2">
         <v>94.25</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="3">
+        <v>42162</v>
+      </c>
+      <c r="F21" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3">
         <v>42188</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D22" s="2">
         <v>94.25</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="3">
+        <v>42186</v>
+      </c>
+      <c r="F22" s="2">
+        <v>94.25</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="D28" s="1"/>
@@ -1401,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1422,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1437,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -1689,7 +1747,7 @@
         <v>7.45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3">
         <v>42053</v>
@@ -1698,7 +1756,7 @@
         <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1712,7 +1770,7 @@
         <v>7.45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="3">
         <v>42064</v>
@@ -1721,7 +1779,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1735,7 +1793,7 @@
         <v>7.45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="3">
         <v>42094</v>
@@ -1744,43 +1802,95 @@
         <v>40</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="3">
+        <v>42129</v>
+      </c>
+      <c r="C20" s="2">
+        <v>59.24</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="3">
+        <v>42130</v>
+      </c>
+      <c r="G20" s="2">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="3">
+        <v>42157</v>
+      </c>
+      <c r="C21" s="2">
+        <v>49.36</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="3">
+        <v>42162</v>
+      </c>
+      <c r="G21" s="2">
+        <v>46</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
+      <c r="B22" s="3">
+        <v>42192</v>
+      </c>
+      <c r="C22" s="2">
+        <v>49.36</v>
+      </c>
+      <c r="D22" s="2">
+        <v>74.36</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="3">
+        <v>42186</v>
+      </c>
+      <c r="G22" s="2">
+        <v>123.47</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="3">
+        <v>42222</v>
+      </c>
+      <c r="C23" s="2">
+        <v>59.24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="3">
+        <v>42214</v>
+      </c>
+      <c r="G23" s="2">
+        <v>76.31</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
@@ -1791,6 +1901,15 @@
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1868,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G13"/>
+  <dimension ref="B3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2054,7 +2173,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1">
         <v>42039</v>
@@ -2074,7 +2193,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <v>42078</v>
@@ -2094,12 +2213,72 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1">
         <v>42106</v>
       </c>
       <c r="G13">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1">
+        <v>42139</v>
+      </c>
+      <c r="C14">
+        <v>36.9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42130</v>
+      </c>
+      <c r="G14">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1">
+        <v>42170</v>
+      </c>
+      <c r="C15">
+        <v>36.9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42162</v>
+      </c>
+      <c r="G15">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1">
+        <v>42200</v>
+      </c>
+      <c r="C16">
+        <v>36.9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1">
+        <v>42186</v>
+      </c>
+      <c r="G16">
         <v>36.9</v>
       </c>
     </row>
@@ -2116,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2132,8 +2311,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="6" t="s">
-        <v>58</v>
+      <c r="B1" s="6">
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -2164,10 +2343,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
         <v>75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -2230,7 +2409,7 @@
         <v>313.88</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>42053</v>
@@ -2247,7 +2426,7 @@
         <v>316.83999999999997</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1">
         <v>42094</v>
@@ -2270,7 +2449,7 @@
         <v>190.96</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1">
         <v>42110</v>
@@ -2286,16 +2465,77 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>42149</v>
+      </c>
+      <c r="C11">
+        <v>56.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42162</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>176</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1">
+        <v>42177</v>
+      </c>
+      <c r="C12">
+        <v>41.75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42186</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="1">
+        <v>42212</v>
+      </c>
+      <c r="C13">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42202</v>
+      </c>
+      <c r="F13">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" display="http://ebok.pgnig.pl"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2306,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:G8"/>
+  <dimension ref="C1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2378,7 +2618,7 @@
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>36.99</v>
@@ -2395,7 +2635,7 @@
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>78.5</v>
@@ -2412,7 +2652,7 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>74.86</v>
@@ -2425,6 +2665,74 @@
       </c>
       <c r="G8">
         <v>74.86</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42135</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42130</v>
+      </c>
+      <c r="G9">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>74.39</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42165</v>
+      </c>
+      <c r="F10" s="1">
+        <v>42162</v>
+      </c>
+      <c r="G10">
+        <v>74.39</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42198</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42186</v>
+      </c>
+      <c r="G11">
+        <v>75.010000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>75.42</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42226</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42214</v>
+      </c>
+      <c r="G12">
+        <v>75.42</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2749,7 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2523,7 +2831,7 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="11">
-        <v>42139</v>
+        <v>42170</v>
       </c>
       <c r="C7" s="12">
         <v>90</v>
@@ -2580,4 +2888,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1">
+        <v>42125</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1">
+        <v>42156</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>